--- a/Output/Drive/5. Pobreza.xlsx
+++ b/Output/Drive/5. Pobreza.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="928">
   <si>
-    <t xml:space="preserve">Municipio</t>
+    <t xml:space="preserve">CVE_MUN</t>
   </si>
   <si>
     <t xml:space="preserve">Pobreza 2020%</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">Vulnerables por ingreso Personas 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Acatlán</t>
+    <t xml:space="preserve">13001</t>
   </si>
   <si>
     <t xml:space="preserve">39.285885276000002</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">132</t>
   </si>
   <si>
-    <t xml:space="preserve">Acaxochitlán</t>
+    <t xml:space="preserve">13002</t>
   </si>
   <si>
     <t xml:space="preserve">80.086128866099997</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">459</t>
   </si>
   <si>
-    <t xml:space="preserve">Actopan</t>
+    <t xml:space="preserve">13003</t>
   </si>
   <si>
     <t xml:space="preserve">48.017408130699998</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">3097</t>
   </si>
   <si>
-    <t xml:space="preserve">Agua Blanca de Iturbide</t>
+    <t xml:space="preserve">13004</t>
   </si>
   <si>
     <t xml:space="preserve">60.001719542399996</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">97</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajacuba</t>
+    <t xml:space="preserve">13005</t>
   </si>
   <si>
     <t xml:space="preserve">48.065500386899998</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">1478</t>
   </si>
   <si>
-    <t xml:space="preserve">Alfajayucan</t>
+    <t xml:space="preserve">13006</t>
   </si>
   <si>
     <t xml:space="preserve">48.560746932299999</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">166</t>
   </si>
   <si>
-    <t xml:space="preserve">Almoloya</t>
+    <t xml:space="preserve">13007</t>
   </si>
   <si>
     <t xml:space="preserve">50.236450218400002</t>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">809</t>
   </si>
   <si>
-    <t xml:space="preserve">Apan</t>
+    <t xml:space="preserve">13008</t>
   </si>
   <si>
     <t xml:space="preserve">41.362210778799998</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">3904</t>
   </si>
   <si>
-    <t xml:space="preserve">El Arenal</t>
+    <t xml:space="preserve">13009</t>
   </si>
   <si>
     <t xml:space="preserve">48.885358947199997</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">461</t>
   </si>
   <si>
-    <t xml:space="preserve">Atitalaquia</t>
+    <t xml:space="preserve">13010</t>
   </si>
   <si>
     <t xml:space="preserve">28.964640609100002</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlapexco</t>
+    <t xml:space="preserve">13011</t>
   </si>
   <si>
     <t xml:space="preserve">65.155038727700003</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">95</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco el Grande</t>
+    <t xml:space="preserve">13012</t>
   </si>
   <si>
     <t xml:space="preserve">52.423565721999999</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">523</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco de Tula</t>
+    <t xml:space="preserve">13013</t>
   </si>
   <si>
     <t xml:space="preserve">32.855368327199997</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">7035</t>
   </si>
   <si>
-    <t xml:space="preserve">Calnali</t>
+    <t xml:space="preserve">13014</t>
   </si>
   <si>
     <t xml:space="preserve">66.147880474999994</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">226</t>
   </si>
   <si>
-    <t xml:space="preserve">Cardonal</t>
+    <t xml:space="preserve">13015</t>
   </si>
   <si>
     <t xml:space="preserve">56.498245997799998</t>
@@ -542,7 +542,7 @@
     <t xml:space="preserve">272</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuautepec de Hinojosa</t>
+    <t xml:space="preserve">13016</t>
   </si>
   <si>
     <t xml:space="preserve">67.322176387799999</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">2064</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapantongo</t>
+    <t xml:space="preserve">13017</t>
   </si>
   <si>
     <t xml:space="preserve">49.262296937000002</t>
@@ -608,7 +608,7 @@
     <t xml:space="preserve">194</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapulhuacán</t>
+    <t xml:space="preserve">13018</t>
   </si>
   <si>
     <t xml:space="preserve">51.365303258200001</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">106</t>
   </si>
   <si>
-    <t xml:space="preserve">Chilcuautla</t>
+    <t xml:space="preserve">13019</t>
   </si>
   <si>
     <t xml:space="preserve">48.853548862099998</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">273</t>
   </si>
   <si>
-    <t xml:space="preserve">Eloxochitlán</t>
+    <t xml:space="preserve">13020</t>
   </si>
   <si>
     <t xml:space="preserve">52.9764890282</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">63</t>
   </si>
   <si>
-    <t xml:space="preserve">Emiliano Zapata</t>
+    <t xml:space="preserve">13021</t>
   </si>
   <si>
     <t xml:space="preserve">37.805960772799999</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">1852</t>
   </si>
   <si>
-    <t xml:space="preserve">Epazoyucan</t>
+    <t xml:space="preserve">13022</t>
   </si>
   <si>
     <t xml:space="preserve">36.818871358499997</t>
@@ -773,7 +773,7 @@
     <t xml:space="preserve">926</t>
   </si>
   <si>
-    <t xml:space="preserve">Francisco I. Madero</t>
+    <t xml:space="preserve">13023</t>
   </si>
   <si>
     <t xml:space="preserve">48.206227721899999</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">1564</t>
   </si>
   <si>
-    <t xml:space="preserve">Huasca de Ocampo</t>
+    <t xml:space="preserve">13024</t>
   </si>
   <si>
     <t xml:space="preserve">51.130824364200002</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">143</t>
   </si>
   <si>
-    <t xml:space="preserve">Huautla</t>
+    <t xml:space="preserve">13025</t>
   </si>
   <si>
     <t xml:space="preserve">64.231643764799998</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">0.93100252750000001</t>
   </si>
   <si>
-    <t xml:space="preserve">Huazalingo</t>
+    <t xml:space="preserve">13026</t>
   </si>
   <si>
     <t xml:space="preserve">86.152724311100002</t>
@@ -902,7 +902,7 @@
     <t xml:space="preserve">43</t>
   </si>
   <si>
-    <t xml:space="preserve">Huehuetla</t>
+    <t xml:space="preserve">13027</t>
   </si>
   <si>
     <t xml:space="preserve">75.763570641300007</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">124</t>
   </si>
   <si>
-    <t xml:space="preserve">Huejutla de Reyes</t>
+    <t xml:space="preserve">13028</t>
   </si>
   <si>
     <t xml:space="preserve">65.354144454799993</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">3734</t>
   </si>
   <si>
-    <t xml:space="preserve">Huichapan</t>
+    <t xml:space="preserve">13029</t>
   </si>
   <si>
     <t xml:space="preserve">42.441901719199997</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">1851</t>
   </si>
   <si>
-    <t xml:space="preserve">Ixmiquilpan</t>
+    <t xml:space="preserve">13030</t>
   </si>
   <si>
     <t xml:space="preserve">50.244821634799997</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">2540</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacala de Ledezma</t>
+    <t xml:space="preserve">13031</t>
   </si>
   <si>
     <t xml:space="preserve">43.684671154199997</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">82</t>
   </si>
   <si>
-    <t xml:space="preserve">Jaltocán</t>
+    <t xml:space="preserve">13032</t>
   </si>
   <si>
     <t xml:space="preserve">75.209791633899997</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">228</t>
   </si>
   <si>
-    <t xml:space="preserve">Juárez Hidalgo</t>
+    <t xml:space="preserve">13033</t>
   </si>
   <si>
     <t xml:space="preserve">55.636523574899996</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">127</t>
   </si>
   <si>
-    <t xml:space="preserve">Lolotla</t>
+    <t xml:space="preserve">13034</t>
   </si>
   <si>
     <t xml:space="preserve">77.170251471399993</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">105</t>
   </si>
   <si>
-    <t xml:space="preserve">Metepec</t>
+    <t xml:space="preserve">13035</t>
   </si>
   <si>
     <t xml:space="preserve">42.821150095100002</t>
@@ -1196,7 +1196,7 @@
     <t xml:space="preserve">168</t>
   </si>
   <si>
-    <t xml:space="preserve">San Agustín Metzquititlán</t>
+    <t xml:space="preserve">13036</t>
   </si>
   <si>
     <t xml:space="preserve">53.0476087427</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">192</t>
   </si>
   <si>
-    <t xml:space="preserve">Metztitlán</t>
+    <t xml:space="preserve">13037</t>
   </si>
   <si>
     <t xml:space="preserve">51.888661202800002</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">310</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral del Chico</t>
+    <t xml:space="preserve">13038</t>
   </si>
   <si>
     <t xml:space="preserve">42.844727830899998</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">198</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral del Monte</t>
+    <t xml:space="preserve">13039</t>
   </si>
   <si>
     <t xml:space="preserve">49.6261241578</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">1138</t>
   </si>
   <si>
-    <t xml:space="preserve">La Misión</t>
+    <t xml:space="preserve">13040</t>
   </si>
   <si>
     <t xml:space="preserve">61.949747708799997</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">70</t>
   </si>
   <si>
-    <t xml:space="preserve">Mixquiahuala de Juárez</t>
+    <t xml:space="preserve">13041</t>
   </si>
   <si>
     <t xml:space="preserve">39.749486387899999</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">1562</t>
   </si>
   <si>
-    <t xml:space="preserve">Molango de Escamilla</t>
+    <t xml:space="preserve">13042</t>
   </si>
   <si>
     <t xml:space="preserve">59.717035687100001</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">237</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicolás Flores</t>
+    <t xml:space="preserve">13043</t>
   </si>
   <si>
     <t xml:space="preserve">67.643574131999998</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">1.6861938456000001</t>
   </si>
   <si>
-    <t xml:space="preserve">Nopala de Villagrán</t>
+    <t xml:space="preserve">13044</t>
   </si>
   <si>
     <t xml:space="preserve">43.092495053299999</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">197</t>
   </si>
   <si>
-    <t xml:space="preserve">Omitlán de Juárez</t>
+    <t xml:space="preserve">13045</t>
   </si>
   <si>
     <t xml:space="preserve">44.748250218700001</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">1.8293963255000001</t>
   </si>
   <si>
-    <t xml:space="preserve">San Felipe Orizatlán</t>
+    <t xml:space="preserve">13046</t>
   </si>
   <si>
     <t xml:space="preserve">68.923320089900002</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">435</t>
   </si>
   <si>
-    <t xml:space="preserve">Pacula</t>
+    <t xml:space="preserve">13047</t>
   </si>
   <si>
     <t xml:space="preserve">53.879810793399997</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">28</t>
   </si>
   <si>
-    <t xml:space="preserve">Pachuca de Soto</t>
+    <t xml:space="preserve">13048</t>
   </si>
   <si>
     <t xml:space="preserve">28.2238205128</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">19536</t>
   </si>
   <si>
-    <t xml:space="preserve">Pisaflores</t>
+    <t xml:space="preserve">13049</t>
   </si>
   <si>
     <t xml:space="preserve">61.687249833599999</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">87</t>
   </si>
   <si>
-    <t xml:space="preserve">Progreso de Obregón</t>
+    <t xml:space="preserve">13050</t>
   </si>
   <si>
     <t xml:space="preserve">38.974902331000003</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">1215</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral de la Reforma</t>
+    <t xml:space="preserve">13051</t>
   </si>
   <si>
     <t xml:space="preserve">18.7288219888</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">12472</t>
   </si>
   <si>
-    <t xml:space="preserve">San Agustín Tlaxiaca</t>
+    <t xml:space="preserve">13052</t>
   </si>
   <si>
     <t xml:space="preserve">43.410017033800003</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">1233</t>
   </si>
   <si>
-    <t xml:space="preserve">San Bartolo Tutotepec</t>
+    <t xml:space="preserve">13053</t>
   </si>
   <si>
     <t xml:space="preserve">65.132697515999993</t>
@@ -1784,7 +1784,7 @@
     <t xml:space="preserve">73</t>
   </si>
   <si>
-    <t xml:space="preserve">San Salvador</t>
+    <t xml:space="preserve">13054</t>
   </si>
   <si>
     <t xml:space="preserve">42.881995161200003</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">1066</t>
   </si>
   <si>
-    <t xml:space="preserve">Santiago de Anaya</t>
+    <t xml:space="preserve">13055</t>
   </si>
   <si>
     <t xml:space="preserve">48.996600876099997</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">335</t>
   </si>
   <si>
-    <t xml:space="preserve">Santiago Tulantepec de Lugo Guerrero</t>
+    <t xml:space="preserve">13056</t>
   </si>
   <si>
     <t xml:space="preserve">39.154255192000001</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">2318</t>
   </si>
   <si>
-    <t xml:space="preserve">Singuilucan</t>
+    <t xml:space="preserve">13057</t>
   </si>
   <si>
     <t xml:space="preserve">48.887708604399997</t>
@@ -1916,7 +1916,7 @@
     <t xml:space="preserve">411</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasquillo</t>
+    <t xml:space="preserve">13058</t>
   </si>
   <si>
     <t xml:space="preserve">51.627540719000002</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">242</t>
   </si>
   <si>
-    <t xml:space="preserve">Tecozautla</t>
+    <t xml:space="preserve">13059</t>
   </si>
   <si>
     <t xml:space="preserve">44.223536615699999</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">423</t>
   </si>
   <si>
-    <t xml:space="preserve">Tenango de Doria</t>
+    <t xml:space="preserve">13060</t>
   </si>
   <si>
     <t xml:space="preserve">63.540914740399998</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">1.1001395143999999</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepeapulco</t>
+    <t xml:space="preserve">13061</t>
   </si>
   <si>
     <t xml:space="preserve">31.548077702600001</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">6509</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepehuacán de Guerrero</t>
+    <t xml:space="preserve">13062</t>
   </si>
   <si>
     <t xml:space="preserve">81.5839364988</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">277</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepeji del Río de Ocampo</t>
+    <t xml:space="preserve">13063</t>
   </si>
   <si>
     <t xml:space="preserve">32.268099800100003</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">8204</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepetitlán</t>
+    <t xml:space="preserve">13064</t>
   </si>
   <si>
     <t xml:space="preserve">42.042350286100003</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">299</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetepango</t>
+    <t xml:space="preserve">13065</t>
   </si>
   <si>
     <t xml:space="preserve">53.891240225300002</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">769</t>
   </si>
   <si>
-    <t xml:space="preserve">Villa de Tezontepec</t>
+    <t xml:space="preserve">13066</t>
   </si>
   <si>
     <t xml:space="preserve">52.611330049400003</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">502</t>
   </si>
   <si>
-    <t xml:space="preserve">Tezontepec de Aldama</t>
+    <t xml:space="preserve">13067</t>
   </si>
   <si>
     <t xml:space="preserve">55.106302446800001</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">3417</t>
   </si>
   <si>
-    <t xml:space="preserve">Tianguistengo</t>
+    <t xml:space="preserve">13068</t>
   </si>
   <si>
     <t xml:space="preserve">79.220040853900002</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">113</t>
   </si>
   <si>
-    <t xml:space="preserve">Tizayuca</t>
+    <t xml:space="preserve">13069</t>
   </si>
   <si>
     <t xml:space="preserve">35.892555402600003</t>
@@ -2306,7 +2306,7 @@
     <t xml:space="preserve">17432</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlahuelilpan</t>
+    <t xml:space="preserve">13070</t>
   </si>
   <si>
     <t xml:space="preserve">50.152835984200003</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">5.5146721231000004</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlahuiltepa</t>
+    <t xml:space="preserve">13071</t>
   </si>
   <si>
     <t xml:space="preserve">71.166183035700001</t>
@@ -2369,7 +2369,7 @@
     <t xml:space="preserve">49</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlanalapa</t>
+    <t xml:space="preserve">13072</t>
   </si>
   <si>
     <t xml:space="preserve">35.305033438300001</t>
@@ -2402,7 +2402,7 @@
     <t xml:space="preserve">1205</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlanchinol</t>
+    <t xml:space="preserve">13073</t>
   </si>
   <si>
     <t xml:space="preserve">85.7790305778</t>
@@ -2435,7 +2435,7 @@
     <t xml:space="preserve">222</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcoapan</t>
+    <t xml:space="preserve">13074</t>
   </si>
   <si>
     <t xml:space="preserve">54.464559935399997</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">2110</t>
   </si>
   <si>
-    <t xml:space="preserve">Tolcayuca</t>
+    <t xml:space="preserve">13075</t>
   </si>
   <si>
     <t xml:space="preserve">41.1090329536</t>
@@ -2501,7 +2501,7 @@
     <t xml:space="preserve">1330</t>
   </si>
   <si>
-    <t xml:space="preserve">Tula de Allende</t>
+    <t xml:space="preserve">13076</t>
   </si>
   <si>
     <t xml:space="preserve">27.758276522399999</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">6487</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo de Bravo</t>
+    <t xml:space="preserve">13077</t>
   </si>
   <si>
     <t xml:space="preserve">44.516568583900003</t>
@@ -2567,7 +2567,7 @@
     <t xml:space="preserve">9620</t>
   </si>
   <si>
-    <t xml:space="preserve">Xochiatipan</t>
+    <t xml:space="preserve">13078</t>
   </si>
   <si>
     <t xml:space="preserve">88.274351086899998</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">50</t>
   </si>
   <si>
-    <t xml:space="preserve">Xochicoatlán</t>
+    <t xml:space="preserve">13079</t>
   </si>
   <si>
     <t xml:space="preserve">55.603277274699998</t>
@@ -2633,7 +2633,7 @@
     <t xml:space="preserve">199</t>
   </si>
   <si>
-    <t xml:space="preserve">Yahualica</t>
+    <t xml:space="preserve">13080</t>
   </si>
   <si>
     <t xml:space="preserve">79.543248309199996</t>
@@ -2666,7 +2666,7 @@
     <t xml:space="preserve">154</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacualtipán de Ángeles</t>
+    <t xml:space="preserve">13081</t>
   </si>
   <si>
     <t xml:space="preserve">59.429563020499998</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">1801</t>
   </si>
   <si>
-    <t xml:space="preserve">Zapotlán de Juárez</t>
+    <t xml:space="preserve">13082</t>
   </si>
   <si>
     <t xml:space="preserve">49.601569159699999</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">1558</t>
   </si>
   <si>
-    <t xml:space="preserve">Zempoala</t>
+    <t xml:space="preserve">13083</t>
   </si>
   <si>
     <t xml:space="preserve">34.298005689999997</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">4162</t>
   </si>
   <si>
-    <t xml:space="preserve">Zimapán</t>
+    <t xml:space="preserve">13084</t>
   </si>
   <si>
     <t xml:space="preserve">40.523074605799998</t>
